--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_246__Reeval_Taguchi_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_246__Reeval_Taguchi_Modell_1.3.xlsx
@@ -5426,7 +5426,7 @@
                   <c:v>97.1292724609375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.32148361206055</c:v>
+                  <c:v>52.32147598266602</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>38.20291137695312</c:v>
@@ -5435,40 +5435,40 @@
                   <c:v>49.49624252319336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.05364990234375</c:v>
+                  <c:v>97.05363464355469</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.5955810546875</c:v>
+                  <c:v>97.59559631347656</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>89.09733581542969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.42742919921875</c:v>
+                  <c:v>97.42744445800781</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49.72755432128906</c:v>
+                  <c:v>49.7275505065918</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>97.41741943359375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90.19758605957031</c:v>
+                  <c:v>90.19757080078125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>77.0440673828125</c:v>
+                  <c:v>77.04408264160156</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>41.37342071533203</c:v>
+                  <c:v>41.37341690063477</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72.84033966064453</c:v>
+                  <c:v>72.84034729003906</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>69.65143585205078</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>30.52850914001465</c:v>
+                  <c:v>30.52850723266602</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>98.05815124511719</c:v>
@@ -5477,7 +5477,7 @@
                   <c:v>79.40309143066406</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>53.52011871337891</c:v>
+                  <c:v>53.52011489868164</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>63.74897003173828</c:v>
@@ -5486,7 +5486,7 @@
                   <c:v>56.12788009643555</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90.27812194824219</c:v>
+                  <c:v>90.27813720703125</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>96.84721374511719</c:v>
@@ -5495,16 +5495,16 @@
                   <c:v>93.23170471191406</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87.62109375</c:v>
+                  <c:v>87.62107849121094</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>97.16618347167969</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68.18672180175781</c:v>
+                  <c:v>68.18672943115234</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>97.56204223632812</c:v>
+                  <c:v>97.56202697753906</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>53.64117050170898</c:v>
@@ -5513,7 +5513,7 @@
                   <c:v>79.91763305664062</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>97.34239196777344</c:v>
+                  <c:v>97.3424072265625</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>83.84182739257812</c:v>
@@ -5522,7 +5522,7 @@
                   <c:v>84.26158142089844</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>39.63871765136719</c:v>
+                  <c:v>39.63871002197266</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>90.10501098632812</c:v>
@@ -5531,7 +5531,7 @@
                   <c:v>96.56541442871094</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>58.9320182800293</c:v>
+                  <c:v>58.9320068359375</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>93.99452209472656</c:v>
@@ -5546,19 +5546,19 @@
                   <c:v>84.27201843261719</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>80.12069702148438</c:v>
+                  <c:v>80.12071228027344</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>90.94827270507812</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>96.51020812988281</c:v>
+                  <c:v>96.51019287109375</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>83.59030151367188</c:v>
+                  <c:v>83.59028625488281</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>97.06964111328125</c:v>
+                  <c:v>97.06962585449219</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>97.43988037109375</c:v>
@@ -5570,19 +5570,19 @@
                   <c:v>85.50617980957031</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>97.35638427734375</c:v>
+                  <c:v>97.35639953613281</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>74.44140625</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>89.77134704589844</c:v>
+                  <c:v>89.7713623046875</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>56.22928237915039</c:v>
+                  <c:v>56.22928619384766</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>95.49143981933594</c:v>
+                  <c:v>95.491455078125</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>78.53457641601562</c:v>
@@ -5591,10 +5591,10 @@
                   <c:v>53.87590026855469</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>97.11203002929688</c:v>
+                  <c:v>97.11204528808594</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>46.71190643310547</c:v>
+                  <c:v>46.71191024780273</c:v>
                 </c:pt>
                 <c:pt idx="60">
                   <c:v>86.02119445800781</c:v>
@@ -5603,10 +5603,10 @@
                   <c:v>97.91670227050781</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>96.66384887695312</c:v>
+                  <c:v>96.66386413574219</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>97.39210510253906</c:v>
+                  <c:v>97.39208984375</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>86.78645324707031</c:v>
@@ -5615,13 +5615,13 @@
                   <c:v>96.18367004394531</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>90.19551086425781</c:v>
+                  <c:v>90.19552612304688</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>97.55625915527344</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.53994369506836</c:v>
+                  <c:v>62.53994750976562</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>81.33689880371094</c:v>
@@ -5636,16 +5636,16 @@
                   <c:v>96.54647827148438</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>97.69096374511719</c:v>
+                  <c:v>97.69094848632812</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>27.63728904724121</c:v>
+                  <c:v>27.63729286193848</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>64.73201751708984</c:v>
+                  <c:v>64.73200988769531</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>85.96449279785156</c:v>
+                  <c:v>85.96450805664062</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>59.50236129760742</c:v>
@@ -5654,10 +5654,10 @@
                   <c:v>82.72109985351562</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>62.78020858764648</c:v>
+                  <c:v>62.78021240234375</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>53.8289794921875</c:v>
+                  <c:v>53.82898712158203</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>97.49337768554688</c:v>
@@ -5669,22 +5669,22 @@
                   <c:v>85.08306884765625</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>60.79152297973633</c:v>
+                  <c:v>60.79151916503906</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>91.45420837402344</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>96.078857421875</c:v>
+                  <c:v>96.07887268066406</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>80.17710876464844</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>80.81622314453125</c:v>
+                  <c:v>80.81620788574219</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>65.15642547607422</c:v>
+                  <c:v>65.15643310546875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6475,7 +6475,7 @@
         <v>56.1604</v>
       </c>
       <c r="F5">
-        <v>52.32148361206055</v>
+        <v>52.32147598266602</v>
       </c>
       <c r="G5">
         <v>99</v>
@@ -6571,7 +6571,7 @@
         <v>96.3035</v>
       </c>
       <c r="F8">
-        <v>97.05364990234375</v>
+        <v>97.05363464355469</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>97.65470000000001</v>
       </c>
       <c r="F9">
-        <v>97.5955810546875</v>
+        <v>97.59559631347656</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>97.2368</v>
       </c>
       <c r="F11">
-        <v>97.42742919921875</v>
+        <v>97.42744445800781</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>50.2202</v>
       </c>
       <c r="F12">
-        <v>49.72755432128906</v>
+        <v>49.7275505065918</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F14">
-        <v>90.19758605957031</v>
+        <v>90.19757080078125</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>79.27419999999999</v>
       </c>
       <c r="F15">
-        <v>77.0440673828125</v>
+        <v>77.04408264160156</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6731,7 +6731,7 @@
         <v>40.3385</v>
       </c>
       <c r="F16">
-        <v>41.37342071533203</v>
+        <v>41.37341690063477</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6751,7 +6751,7 @@
         <v>73.52419999999999</v>
       </c>
       <c r="F17">
-        <v>72.84033966064453</v>
+        <v>72.84034729003906</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6791,7 +6791,7 @@
         <v>12.1498</v>
       </c>
       <c r="F19">
-        <v>30.52850914001465</v>
+        <v>30.52850723266602</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6851,7 +6851,7 @@
         <v>57.9449</v>
       </c>
       <c r="F22">
-        <v>53.52011871337891</v>
+        <v>53.52011489868164</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>89.67829999999999</v>
       </c>
       <c r="F25">
-        <v>90.27812194824219</v>
+        <v>90.27813720703125</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>89.6236</v>
       </c>
       <c r="F28">
-        <v>87.62109375</v>
+        <v>87.62107849121094</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>67.24550000000001</v>
       </c>
       <c r="F30">
-        <v>68.18672180175781</v>
+        <v>68.18672943115234</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>97.9363</v>
       </c>
       <c r="F31">
-        <v>97.56204223632812</v>
+        <v>97.56202697753906</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>97.2676</v>
       </c>
       <c r="F34">
-        <v>97.34239196777344</v>
+        <v>97.3424072265625</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7151,7 +7151,7 @@
         <v>38.4808</v>
       </c>
       <c r="F37">
-        <v>39.63871765136719</v>
+        <v>39.63871002197266</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>58.3298</v>
       </c>
       <c r="F40">
-        <v>58.9320182800293</v>
+        <v>58.9320068359375</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>78.7594</v>
       </c>
       <c r="F45">
-        <v>80.12069702148438</v>
+        <v>80.12071228027344</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>96.2886</v>
       </c>
       <c r="F47">
-        <v>96.51020812988281</v>
+        <v>96.51019287109375</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>82.63800000000001</v>
       </c>
       <c r="F48">
-        <v>83.59030151367188</v>
+        <v>83.59028625488281</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>96.76430000000001</v>
       </c>
       <c r="F49">
-        <v>97.06964111328125</v>
+        <v>97.06962585449219</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>97.3824</v>
       </c>
       <c r="F53">
-        <v>97.35638427734375</v>
+        <v>97.35639953613281</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>89.41589999999999</v>
       </c>
       <c r="F55">
-        <v>89.77134704589844</v>
+        <v>89.7713623046875</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>56.35</v>
       </c>
       <c r="F56">
-        <v>56.22928237915039</v>
+        <v>56.22928619384766</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>95.4624</v>
       </c>
       <c r="F57">
-        <v>95.49143981933594</v>
+        <v>95.491455078125</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>97.3549</v>
       </c>
       <c r="F60">
-        <v>97.11203002929688</v>
+        <v>97.11204528808594</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>46.5133</v>
       </c>
       <c r="F61">
-        <v>46.71190643310547</v>
+        <v>46.71191024780273</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>96.90470000000001</v>
       </c>
       <c r="F64">
-        <v>96.66384887695312</v>
+        <v>96.66386413574219</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>97.21169999999999</v>
       </c>
       <c r="F65">
-        <v>97.39210510253906</v>
+        <v>97.39208984375</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>89.94750000000001</v>
       </c>
       <c r="F68">
-        <v>90.19551086425781</v>
+        <v>90.19552612304688</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7811,7 +7811,7 @@
         <v>62.6537</v>
       </c>
       <c r="F70">
-        <v>62.53994369506836</v>
+        <v>62.53994750976562</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>97.50060000000001</v>
       </c>
       <c r="F75">
-        <v>97.69096374511719</v>
+        <v>97.69094848632812</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>28.0807</v>
       </c>
       <c r="F76">
-        <v>27.63728904724121</v>
+        <v>27.63729286193848</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>64.7646</v>
       </c>
       <c r="F77">
-        <v>64.73201751708984</v>
+        <v>64.73200988769531</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>86.15000000000001</v>
       </c>
       <c r="F78">
-        <v>85.96449279785156</v>
+        <v>85.96450805664062</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>61.7399</v>
       </c>
       <c r="F81">
-        <v>62.78020858764648</v>
+        <v>62.78021240234375</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.9032</v>
       </c>
       <c r="F82">
-        <v>53.8289794921875</v>
+        <v>53.82898712158203</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>59.665</v>
       </c>
       <c r="F86">
-        <v>60.79152297973633</v>
+        <v>60.79151916503906</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>95.86490000000001</v>
       </c>
       <c r="F88">
-        <v>96.078857421875</v>
+        <v>96.07887268066406</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>81.3472</v>
       </c>
       <c r="F90">
-        <v>80.81622314453125</v>
+        <v>80.81620788574219</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>64.253</v>
       </c>
       <c r="F91">
-        <v>65.15642547607422</v>
+        <v>65.15643310546875</v>
       </c>
     </row>
     <row r="92" spans="1:6">
